--- a/design/Const.Common.xlsx
+++ b/design/Const.Common.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA28BB3-B518-4D23-9E47-A73E733417FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C58D3E-CC5E-4563-A96E-5D2C3FD70BAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Portal" sheetId="3" r:id="rId1"/>
+    <sheet name="Character" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +57,18 @@
   </si>
   <si>
     <t># value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터.스탯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,4 +492,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418FAA53-E344-4FA6-B50E-1BFA3E9B73C9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>